--- a/documentCloud.xlsx
+++ b/documentCloud.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>IP Address</t>
   </si>
@@ -116,9 +116,6 @@
  openstack12345</t>
   </si>
   <si>
-    <t>nova-compute,nova-network,telemetry, rabbit,</t>
-  </si>
-  <si>
     <t>nova*= nova-cert,
 nova-consoleauth ,nova-scheduler, nova-conductor ,nova-novncproxy ,nova-api</t>
   </si>
@@ -146,13 +143,48 @@
   </si>
   <si>
     <t>neutron , openvswitch</t>
+  </si>
+  <si>
+    <t>172.22.22.183</t>
+  </si>
+  <si>
+    <t>Ubuntu14.04,server,Compute03</t>
+  </si>
+  <si>
+    <t>nova-compute,nova-network,telemetry, rabbit,neutron-plugin-openvswitch-agent</t>
+  </si>
+  <si>
+    <t>nova-compute,nova-network,telemetry, 
+rabbit,neutron-plugin-openvswitch-agent</t>
+  </si>
+  <si>
+    <t>COMPUTE NODE</t>
+  </si>
+  <si>
+    <t>CONTROLLER NODE</t>
+  </si>
+  <si>
+    <t>NETWORK NODE</t>
+  </si>
+  <si>
+    <t>BLOCK STORAGE NODE</t>
+  </si>
+  <si>
+    <t>OBJECTSTORAGE NODE</t>
+  </si>
+  <si>
+    <t>IMAGE NODE</t>
+  </si>
+  <si>
+    <t>using to create image 
+for openstack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +192,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -259,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,6 +376,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,14 +728,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
@@ -611,33 +747,35 @@
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -659,8 +797,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,13 +817,15 @@
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,13 +842,13 @@
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
+      <c r="H5" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -724,191 +866,228 @@
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12345</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12345</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="29">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I11:I12"/>
+  <mergeCells count="8">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="I6:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
